--- a/fields.xlsx
+++ b/fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22607"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc640c57cda25b6/Desktop/Repo - Personal/Repo - IB API Client/interactive-broker-python-api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc640c57cda25b6/Desktop/Sigma/Repo - IB API Client/interactive-broker-python-api/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{489165AD-F516-4357-91F7-BA29C86E7797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{757847F5-30F7-4786-ABEC-B063A9B83EB4}"/>
+    <workbookView xWindow="6000" yWindow="825" windowWidth="22800" windowHeight="14775" activeTab="1" xr2:uid="{757847F5-30F7-4786-ABEC-B063A9B83EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
